--- a/List of Android links.xlsx
+++ b/List of Android links.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -18,12 +19,98 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Lesson</t>
+  </si>
+  <si>
+    <t>Android Archiecture</t>
+  </si>
+  <si>
+    <t>video</t>
+  </si>
+  <si>
+    <t>https://www.tutorialspoint.com/android_online_training/android_architecture.asp</t>
+  </si>
+  <si>
+    <t>reading</t>
+  </si>
+  <si>
+    <t>https://www.tutorialspoint.com/android/android_application_components.htm</t>
+  </si>
+  <si>
+    <t>https://www.tutorialspoint.com/android/android_architecture.htm</t>
+  </si>
+  <si>
+    <t>Application Components</t>
+  </si>
+  <si>
+    <t>https://www.tutorialspoint.com/android_online_training/android_application_components.asp</t>
+  </si>
+  <si>
+    <t>Manifest</t>
+  </si>
+  <si>
+    <t>https://developer.android.com/guide/topics/manifest/manifest-intro.html</t>
+  </si>
+  <si>
+    <t>Debugger</t>
+  </si>
+  <si>
+    <t>https://developer.android.com/studio/debug/index.html</t>
+  </si>
+  <si>
+    <t>https://www.tutorialspoint.com/android_online_training/android_manifest_xml.asp</t>
+  </si>
+  <si>
+    <t>https://www.tutorialspoint.com/android/android_hello_world_example.htm</t>
+  </si>
+  <si>
+    <t>Topic</t>
+  </si>
+  <si>
+    <t>The Manifest File</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -46,16 +133,148 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -66,6 +285,20 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E1048576" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="A1:E1048576"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Title" dataDxfId="6"/>
+    <tableColumn id="2" name="Item" dataDxfId="5"/>
+    <tableColumn id="3" name="Link" dataDxfId="4"/>
+    <tableColumn id="4" name="Topic" dataDxfId="3"/>
+    <tableColumn id="5" name="Lesson" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -331,12 +564,175 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="30.6328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" style="1"/>
+    <col min="3" max="3" width="82" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C6" r:id="rId5"/>
+    <hyperlink ref="C9" r:id="rId6"/>
+    <hyperlink ref="C8" r:id="rId7"/>
+    <hyperlink ref="C7" r:id="rId8"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId9"/>
+  <tableParts count="1">
+    <tablePart r:id="rId10"/>
+  </tableParts>
 </worksheet>
 </file>